--- a/Buyer hub/Inventory/Manual testcases/Inventory-SKU Listing.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Inventory-SKU Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0165F999-9C98-4872-A831-B6FA15766039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F17E04C-2DFB-45A4-95AF-E65D7F34E027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>SL. No</t>
   </si>
@@ -246,9 +246,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1.It shows Est.value at count, No.of items and Below par             2.Search SKU, All outlets, Status, Search,                                  </t>
-  </si>
-  <si>
     <t>SKU -&gt; All Outlets</t>
   </si>
   <si>
@@ -373,6 +370,15 @@
       </rPr>
       <t xml:space="preserve"> (as of stock count date).</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.It shows Est.value at count, No.of items and Below par             2.Search SKU, All outlets, Status, Search and Export                              </t>
+  </si>
+  <si>
+    <t>It displayed the Total quantity and value</t>
+  </si>
+  <si>
+    <t>Once click the Export it downloaded Excel sheet in details</t>
   </si>
 </sst>
 </file>
@@ -810,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +962,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>25</v>
@@ -999,10 +1005,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>29</v>
@@ -1025,7 +1031,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>31</v>
@@ -1068,13 +1074,13 @@
         <v>24</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>13</v>
@@ -1091,13 +1097,13 @@
         <v>24</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>13</v>
@@ -1114,13 +1120,17 @@
         <v>24</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
+        <v>50</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1133,13 +1143,17 @@
         <v>24</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
+      <c r="F14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>

--- a/Buyer hub/Inventory/Manual testcases/Inventory-SKU Listing.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Inventory-SKU Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F17E04C-2DFB-45A4-95AF-E65D7F34E027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22387CE0-9EC8-4898-B569-AFF8456A0713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,9 +275,6 @@
     </r>
   </si>
   <si>
-    <t>It shows "Below par"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Click the SKU </t>
   </si>
   <si>
@@ -372,13 +369,29 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1.It shows Est.value at count, No.of items and Below par             2.Search SKU, All outlets, Status, Search and Export                              </t>
-  </si>
-  <si>
     <t>It displayed the Total quantity and value</t>
   </si>
   <si>
     <t>Once click the Export it downloaded Excel sheet in details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.It shows Est.value (No. of outlets), No.of items and Below par                                                                                                                            2.Search SKU, All outlets, Status, Search and Export                              </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Below par"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -493,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -509,11 +522,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -527,13 +535,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,48 +927,48 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="G5" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -975,22 +976,22 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -998,22 +999,22 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1021,22 +1022,22 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1044,22 +1045,22 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1067,22 +1068,22 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1090,22 +1091,22 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1113,22 +1114,22 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1136,80 +1137,80 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
